--- a/generator/diplo/data_bachelor_sample.xlsx
+++ b/generator/diplo/data_bachelor_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ediploma\generator\diplo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD8AAE7-6986-4F01-AB28-8FCAF7DCB0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2CBC39-2D95-40AA-9B0D-05F004FAA1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{71949462-2A71-4356-B07D-1C6009E12A3E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="50">
   <si>
     <t>№</t>
   </si>
@@ -72,46 +72,118 @@
     <t>was awarded the degree of bachelor of</t>
   </si>
   <si>
+    <t xml:space="preserve">2023 жылғы 5 маусымдағы №11 хаттама </t>
+  </si>
+  <si>
+    <t xml:space="preserve">от 5 июня 2023, протокол  №11 </t>
+  </si>
+  <si>
+    <t>Dated on June 5, 2023, minute №11</t>
+  </si>
+  <si>
+    <t>Техники и технологий по образовательной программе «6B07101 Химическая технология органических веществ»</t>
+  </si>
+  <si>
+    <t>Степень и квалификация</t>
+  </si>
+  <si>
+    <t>«6B07101 Органикалық заттардың химиялық технологиясы» білім беру бағдарламасы бойынша техника және технология</t>
+  </si>
+  <si>
+    <t>diploma with honours</t>
+  </si>
+  <si>
+    <t>үздік диплом</t>
+  </si>
+  <si>
+    <t>диплом с отличием</t>
+  </si>
+  <si>
+    <t>Engineering and Technology under the Educational programme «6B07101 Chemical Technology of Organic Substances»</t>
+  </si>
+  <si>
+    <t>АО «Казахстанско-Британский технический университет»</t>
+  </si>
+  <si>
     <t>Абухан Ақжол Айдарұлы</t>
   </si>
   <si>
-    <t xml:space="preserve">2023 жылғы 5 маусымдағы №11 хаттама </t>
-  </si>
-  <si>
-    <t xml:space="preserve">от 5 июня 2023, протокол  №11 </t>
-  </si>
-  <si>
-    <t>Dated on June 5, 2023, minute №11</t>
-  </si>
-  <si>
-    <t>Техники и технологий по образовательной программе «6B07101 Химическая технология органических веществ»</t>
-  </si>
-  <si>
-    <t>Степень и квалификация</t>
-  </si>
-  <si>
-    <t>«6B07101 Органикалық заттардың химиялық технологиясы» білім беру бағдарламасы бойынша техника және технология</t>
-  </si>
-  <si>
-    <t>diploma with honours</t>
-  </si>
-  <si>
-    <t>үздік диплом</t>
-  </si>
-  <si>
-    <t>диплом с отличием</t>
-  </si>
-  <si>
     <t>Akzhol Abukhan</t>
   </si>
   <si>
-    <t>Engineering and Technology under the Educational programme «6B07101 Chemical Technology of Organic Substances»</t>
-  </si>
-  <si>
-    <t>Алексей Иванов Сергеевеич</t>
-  </si>
-  <si>
-    <t>Aleksey Ivanov</t>
+    <t>Азаматова Нұрмариям Азаматқызы</t>
+  </si>
+  <si>
+    <t>Nurmariyam Azamatova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023 жылғы 5 маусымдағы №1 хаттама </t>
+  </si>
+  <si>
+    <t>от 5 июня 2023, протокол  №1</t>
+  </si>
+  <si>
+    <t>Dated on June 5, 2023, minute №1</t>
+  </si>
+  <si>
+    <t>Айтжанова Айдана Кайратовна</t>
+  </si>
+  <si>
+    <t>Aidana Aitzhanova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023 жылғы 6 маусымдағы №12 хаттама </t>
+  </si>
+  <si>
+    <t>от 6 июня 2023, протокол  №12</t>
+  </si>
+  <si>
+    <t>Dated on June 6, 2023, minute №12</t>
+  </si>
+  <si>
+    <t>Аманбаев Мухан Меиримханович</t>
+  </si>
+  <si>
+    <t>Mukhan Amanbayev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023 жылғы 6 маусымдағы №15 хаттама </t>
+  </si>
+  <si>
+    <t>от 6 июня 2023, протокол  №15</t>
+  </si>
+  <si>
+    <t>Dated on June 6, 2023, minute №15</t>
+  </si>
+  <si>
+    <t>Аубакиров Даулет Ерикович</t>
+  </si>
+  <si>
+    <t>Daulet Aubakirov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023 жылғы 5 маусымдағы №2 хаттама </t>
+  </si>
+  <si>
+    <t>от 5 июня 2023, протокол  №2</t>
+  </si>
+  <si>
+    <t>Dated on June 5, 2023, minute №2</t>
+  </si>
+  <si>
+    <t>Базарбаева Айша Мирлановна</t>
+  </si>
+  <si>
+    <t>Aisha Bazarbayeva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023 жылғы 6 маусымдағы №14 хаттама </t>
+  </si>
+  <si>
+    <t>от 6 июня 2023, протокол  №14</t>
+  </si>
+  <si>
+    <t>Dated on June 6, 2023, minute №14</t>
   </si>
 </sst>
 </file>
@@ -220,7 +292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -252,9 +324,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -571,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428C3552-F25D-420F-9D46-A39A075DCF74}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -616,7 +685,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
@@ -678,106 +747,306 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
     </row>
     <row r="4" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/generator/diplo/data_bachelor_sample.xlsx
+++ b/generator/diplo/data_bachelor_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ediploma\generator\diplo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seitk\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2CBC39-2D95-40AA-9B0D-05F004FAA1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18A35E87-25C8-4D14-94FC-B51E0B9385F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{71949462-2A71-4356-B07D-1C6009E12A3E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{71949462-2A71-4356-B07D-1C6009E12A3E}"/>
   </bookViews>
   <sheets>
     <sheet name="бакалавриат" sheetId="11" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="72">
   <si>
     <t>№</t>
   </si>
@@ -63,15 +63,6 @@
     <t>англ</t>
   </si>
   <si>
-    <t>Бакалавры дәрежесі берілді</t>
-  </si>
-  <si>
-    <t>Присуждена степень бакалавра</t>
-  </si>
-  <si>
-    <t>was awarded the degree of bachelor of</t>
-  </si>
-  <si>
     <t xml:space="preserve">2023 жылғы 5 маусымдағы №11 хаттама </t>
   </si>
   <si>
@@ -184,13 +175,88 @@
   </si>
   <si>
     <t>Dated on June 6, 2023, minute №14</t>
+  </si>
+  <si>
+    <t>Бакалавр</t>
+  </si>
+  <si>
+    <t>Bachelor</t>
+  </si>
+  <si>
+    <t>ИИН</t>
+  </si>
+  <si>
+    <t>Номер телефона</t>
+  </si>
+  <si>
+    <t>Почта</t>
+  </si>
+  <si>
+    <t>GPA</t>
+  </si>
+  <si>
+    <t>Регион</t>
+  </si>
+  <si>
+    <t>Пол</t>
+  </si>
+  <si>
+    <t>Национальность</t>
+  </si>
+  <si>
+    <t>Грант/Не грант</t>
+  </si>
+  <si>
+    <t>Факультет</t>
+  </si>
+  <si>
+    <t>Оценка дипломной работы</t>
+  </si>
+  <si>
+    <t>Мужской/Женский</t>
+  </si>
+  <si>
+    <t>Казах(шка)</t>
+  </si>
+  <si>
+    <t>000000000000</t>
+  </si>
+  <si>
+    <t>000000000001</t>
+  </si>
+  <si>
+    <t>000000000002</t>
+  </si>
+  <si>
+    <t>000000000003</t>
+  </si>
+  <si>
+    <t>000000000004</t>
+  </si>
+  <si>
+    <t>000000000005</t>
+  </si>
+  <si>
+    <t>+77077077070</t>
+  </si>
+  <si>
+    <t>example@uni.edu</t>
+  </si>
+  <si>
+    <t>Алматинская область</t>
+  </si>
+  <si>
+    <t>Название факультета</t>
+  </si>
+  <si>
+    <t>Акмолинская область</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +283,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -292,7 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -324,6 +408,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -640,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428C3552-F25D-420F-9D46-A39A075DCF74}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -661,10 +757,20 @@
     <col min="14" max="14" width="24.44140625" style="7" customWidth="1"/>
     <col min="15" max="15" width="96.44140625" style="7" customWidth="1"/>
     <col min="16" max="18" width="24.44140625" style="7" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="5"/>
+    <col min="19" max="19" width="20.6640625" style="5" customWidth="1"/>
+    <col min="20" max="20" width="20.5546875" style="5" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" style="5" customWidth="1"/>
+    <col min="22" max="22" width="9.109375" style="5"/>
+    <col min="23" max="23" width="13.21875" style="5" customWidth="1"/>
+    <col min="24" max="24" width="11.88671875" style="5" customWidth="1"/>
+    <col min="25" max="25" width="22.44140625" style="5" customWidth="1"/>
+    <col min="26" max="26" width="19.5546875" style="5" customWidth="1"/>
+    <col min="27" max="27" width="15.44140625" style="5" customWidth="1"/>
+    <col min="28" max="28" width="31.5546875" style="5" customWidth="1"/>
+    <col min="29" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -685,7 +791,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
@@ -697,8 +803,38 @@
       </c>
       <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
+      <c r="S1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -741,315 +877,527 @@
       <c r="R2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="S2" s="12"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
     </row>
-    <row r="3" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="N3" s="2" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
+      <c r="S3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="V3" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>70.2</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="I4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="R4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
+      <c r="S4" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="V4" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>72.400000000000006</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" s="6">
         <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="I5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="J5" s="3" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
+      <c r="S5" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="U5" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="V5" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>74.599999999999994</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="6">
         <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="I6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="J6" s="3" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="R6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>18</v>
+      <c r="S6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="V6" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>76.8</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="6">
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="I7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="J7" s="3" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
+      <c r="S7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="U7" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="V7" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>79</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="6">
         <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="I8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="J8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="K8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="O8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="2" t="s">
+      <c r="R8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
+      <c r="S8" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="U8" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="V8" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>81.2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="20">
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -1061,6 +1409,7 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
